--- a/docs/ST13/ST13_01.08.24_output.xlsx
+++ b/docs/ST13/ST13_01.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K124"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,6005 +505,7110 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1730748158.4031124</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1730748159.8587787</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730748158.4031124.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730748159.8587787.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>289.84</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>289.13</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.7099999999999795</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1730748162.7749693</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1730748163.7832692</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730748162.7749693.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730748163.7832692.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>289.83</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>289.48</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.3499999999999659</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1730748174.3903878</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1730748174.4356525</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730748174.3903878.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730748174.4356525.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>133.44</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>133.4</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.03999999999999204</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1730748174.6450152</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1730748175.7886255</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730748174.6450152.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730748175.7886255.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>133.34</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>133.42</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1730748176.2025564</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1730748177.50503</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730748176.2025564.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730748177.50503.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>133.31</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>133.46</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.1500000000000057</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1730748177.519926</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1730748177.6156297</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730748177.519926.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730748177.6156297.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>133.46</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>133.52</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1730748177.6585197</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1730748178.6815894</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730748177.6585197.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730748178.6815894.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>133.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>133.22</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1730748182.2180607</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1730748182.5616372</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730748182.2180607.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730748182.5616372.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>133.36</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>133.48</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.1199999999999761</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1730748182.8178673</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1730748183.103624</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730748182.8178673.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730748183.103624.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>133.37</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>133.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.1299999999999955</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1730748183.2551196</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1730748184.5315113</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730748183.2551196.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730748184.5315113.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>133.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>133.48</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.02000000000001023</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1730748185.5919662</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1730748185.6350336</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730748185.5919662.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730748185.6350336.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>132.83</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>132.73</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.1000000000000227</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1730748185.6776984</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1730748185.721581</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730748185.6776984.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730748185.721581.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>132.81</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>132.73</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.08000000000001251</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1730748185.7916307</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1730748185.8341646</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730748185.7916307.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730748185.8341646.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>132.61</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>132.49</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.1200000000000045</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1730748185.9044776</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1730748188.6745272</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730748185.9044776.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730748188.6745272.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>132.76</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>132.69</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.06999999999999318</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1730748193.3920028</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1730748194.618289</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730748193.3920028.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730748194.618289.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6748</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6756.5</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>8.5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1730748195.3424196</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1730748196.241377</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730748195.3424196.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730748196.241377.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6747.5</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6747</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1730748196.3928113</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1730748196.9731262</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730748196.3928113.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730748196.9731262.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6747</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6761.5</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>14.5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1730748196.988059</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1730748200.2121882</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730748196.988059.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730748200.2121882.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6761.5</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6743.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>18</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1730748200.226137</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1730748200.2943485</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730748200.226137.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730748200.2943485.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6743.5</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6725</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-18.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1730748205.8776376</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1730748207.4598317</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730748205.8776376.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730748207.4598317.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6721.5</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6704.5</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>17</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1730748207.4757888</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1730748208.7709842</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730748207.4757888.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730748208.7709842.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6704.5</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6705.5</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1730748217.7091877</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1730748220.3125808</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730748217.7091877.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730748220.3125808.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>513.8</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>514.35</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.5500000000000682</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1730748248.8003657</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1730748249.5284402</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730748248.8003657.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730748249.5284402.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>232.96</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>232.97</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.009999999999990905</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1730748249.6219127</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1730748249.676058</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730748249.6219127.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730748249.676058.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>232.95</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>232.96</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.01000000000001933</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1730748249.942702</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1730748250.1147451</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730748249.942702.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730748250.1147451.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>232.95</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>232.98</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1730748250.1566381</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1730748250.1985204</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730748250.1566381.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730748250.1985204.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>232.92</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>233</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.08000000000001251</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1730748250.6822305</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1730748250.7510474</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730748250.6822305.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730748250.7510474.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>233.08</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>233.09</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.009999999999990905</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1730748250.8713517</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1730748253.555041</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730748250.8713517.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730748253.555041.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>233.08</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>233.54</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.4599999999999795</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1730748254.4709435</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1730748255.0943081</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730748254.4709435.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730748255.0943081.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>232.08</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>231.38</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.7000000000000171</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1730748264.5010817</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1730748265.1981406</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730748264.5010817.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730748265.1981406.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1047</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1046.8</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.2000000000000455</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1730748266.045273</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1730748266.1306999</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730748266.045273.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730748266.1306999.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1046.2</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1046</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.2000000000000455</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1730748266.2027671</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1730748266.4103913</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730748266.2027671.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730748266.4103913.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1046</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1044.8</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-1.200000000000045</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1730748266.6201916</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1730748268.2997637</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730748266.6201916.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730748268.2997637.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1045.2</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1044.8</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.4000000000000909</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1730748285.2536926</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1730748287.113202</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730748285.2536926.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730748287.113202.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>129.38</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>129.42</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.03999999999999204</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1730748292.7163904</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1730748299.0869555</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730748292.7163904.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730748299.0869555.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>129.56</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>129.24</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.3199999999999932</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1730748299.1019163</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1730748299.1767163</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730748299.1019163.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730748299.1767163.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>129.24</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>129.12</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.1200000000000045</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1730748299.5215056</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1730748299.5643914</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730748299.5215056.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730748299.5643914.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>129.22</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>129.02</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.1999999999999886</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1730748299.646173</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1730748304.4580724</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730748299.646173.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730748304.4580724.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>129.14</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>128.74</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.3999999999999773</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1730748309.4470804</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1730748309.490209</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730748309.4470804.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730748309.490209.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>128.86</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>128.9</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.03999999999999204</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1730748309.535429</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1730748311.5797884</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730748309.535429.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730748311.5797884.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>128.86</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>128.4</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.460000000000008</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1730748316.1883776</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1730748316.3490489</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730748316.1883776.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730748316.3490489.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>166.14</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>165.94</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.1999999999999886</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1730748316.4484084</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1730748316.493289</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730748316.4484084.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730748316.493289.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>165.94</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>165.82</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.1200000000000045</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1730748316.787481</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1730748317.862942</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730748316.787481.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730748317.862942.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>165.92</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>166.24</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.3200000000000216</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1730748322.0848453</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1730748324.7015796</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730748322.0848453.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730748324.7015796.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>165.94</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>166.26</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.3199999999999932</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1730748334.5997388</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1730748334.5997388.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1730748334.5997388.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>164.72</v>
       </c>
-      <c r="J47" t="n">
-        <v>164.72</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
+      <c r="L47" t="n">
+        <v>164.66</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1730748334.9333246</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1730748334.976208</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730748334.9333246.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730748334.976208.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>50.815</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>50.74</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.07499999999999574</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1730748334.9921336</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1730748335.0897655</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730748334.9921336.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730748335.0897655.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>50.74</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>50.815</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.07499999999999574</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1730748335.105694</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1730748335.2800581</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730748335.105694.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730748335.2800581.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>50.815</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>50.965</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.1500000000000057</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1730748338.0353203</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1730748338.0791752</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730748338.0353203.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730748338.0791752.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>50.845</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>50.825</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.01999999999999602</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1730748338.123058</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1730748338.2216175</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730748338.123058.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730748338.2216175.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>50.84</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>50.825</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.01500000000000057</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1730748338.2645025</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1730748338.5535285</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730748338.2645025.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730748338.5535285.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>50.84</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>50.835</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.005000000000002558</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1730748343.890455</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1730748345.7920218</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730748343.890455.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730748345.7920218.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>50.84</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>50.8</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.04000000000000625</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1730748348.938251</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1730748349.3418097</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730748348.938251.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730748349.3418097.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>50.9</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>50.815</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.08500000000000085</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1730748349.359218</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1730748349.7160714</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730748349.359218.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730748349.7160714.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>50.815</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>50.955</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1730748349.7320015</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1730748349.8850856</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730748349.7320015.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730748349.8850856.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>50.955</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>50.845</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1730748349.9010124</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1730748352.2856631</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730748349.9010124.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730748352.2856631.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>50.845</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>50.815</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1730748357.2454836</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1730748358.4851007</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730748357.2454836.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730748358.4851007.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>1416.4</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>1417</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.5999999999999091</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1730748360.1134863</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1730748361.5495615</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730748360.1134863.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730748361.5495615.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>1415.2</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>1416.2</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1730748362.0250418</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1730748362.1515543</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730748362.0250418.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730748362.1515543.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>1418</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>1419.6</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-1.599999999999909</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1730748366.1916554</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1730748367.1570544</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730748366.1916554.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730748367.1570544.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>1416.2</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>1418.4</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>2.200000000000045</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1730748368.1604567</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1730748368.3510113</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730748368.1604567.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730748368.3510113.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>1417.2</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>1418.8</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>1.599999999999909</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1730748368.3670306</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1730748370.3599489</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730748368.3670306.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730748370.3599489.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>1418.8</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>1419</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.2000000000000455</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1730748380.7312055</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1730748382.5405846</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730748380.7312055.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730748382.5405846.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>60.9</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>61.07</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.1700000000000017</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1730748387.5206032</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1730748387.5644848</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730748387.5206032.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730748387.5644848.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>61.27</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>61.24</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1730748387.686593</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1730748388.8898919</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730748387.686593.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730748388.8898919.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>61.25</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>61.31</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1730748390.7318587</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1730748393.0786574</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730748390.7318587.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730748393.0786574.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>61.34</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>61.04</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.3000000000000043</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1730748403.1472564</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1730748405.0737176</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/SELG1730748403.1472564.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/SELG1730748405.0737176.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>58.67</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>58.55</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-0.1200000000000045</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1730748410.8259478</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1730748413.0573933</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/SELG1730748410.8259478.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/SELG1730748413.0573933.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>58.59</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>58.3</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.2900000000000063</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1730748413.073323</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1730748415.5775325</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/SELG1730748413.073323.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/SELG1730748415.5775325.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>58.3</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>58</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-0.2999999999999972</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.51</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1730748427.1614685</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1730748427.4968214</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730748427.1614685.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730748427.4968214.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>145.26</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>145.76</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1730748430.1436787</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1730748431.0737045</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730748430.1436787.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730748431.0737045.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>145.22</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>145.74</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.5200000000000102</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1730748431.0886364</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1730748433.298518</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730748431.0886364.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730748433.298518.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>145.74</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>144.7</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>1.04000000000002</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.7100000000000001</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1730748433.3144436</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1730748436.3964987</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730748433.3144436.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730748436.3964987.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>144.7</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>143.82</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-0.8799999999999955</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.61</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1730748447.1192458</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1730748448.5812206</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730748447.1192458.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730748448.5812206.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>21.349</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>21.365</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.01599999999999824</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1730748449.0553153</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1730748449.6716704</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730748449.0553153.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730748449.6716704.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>21.292</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>21.243</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.04900000000000304</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1730748453.0990343</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1730748454.8608155</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730748453.0990343.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730748454.8608155.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>21.226</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>21.164</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.06199999999999761</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1730748465.615656</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1730748467.4087527</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730748465.615656.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730748467.4087527.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>682.45</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>683.4</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.9499999999999318</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1730748468.4644804</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1730748468.5643122</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730748468.4644804.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730748468.5643122.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>683.55</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>683.9</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-0.3500000000000227</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1730748468.610161</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1730748468.655069</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730748468.610161.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730748468.655069.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>683.65</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>684</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-0.3500000000000227</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1730748468.6989253</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1730748468.7418373</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730748468.6989253.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730748468.7418373.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>683.65</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>684.1</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>-0.4500000000000455</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1730748469.5078328</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1730748471.2666523</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730748469.5078328.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730748471.2666523.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>684</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>682.2</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1730748484.3907611</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1730748484.433646</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730748484.3907611.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730748484.433646.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>678.65</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>678.75</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>-0.1000000000000227</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1730748484.5044594</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1730748484.5473394</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730748484.5044594.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730748484.5473394.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>678.65</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>678.75</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>-0.1000000000000227</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1730748484.651743</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1730748485.0045722</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730748484.651743.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730748485.0045722.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>678.65</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>679.15</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1730748485.820687</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1730748487.2668457</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/FEES1730748485.820687.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/FEES1730748487.2668457.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>0.09962000000000001</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>0.09910000000000001</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-0.0005200000000000066</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1730748500.7401218</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1730748502.864459</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/FEES1730748500.7401218.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/FEES1730748502.864459.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>0.10018</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>0.09960000000000001</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>-0.0005799999999999972</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-0.58</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1730748507.265742</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1730748507.3076286</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730748507.265742.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730748507.3076286.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>0.6059</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>0.6064000000000001</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.000500000000000056</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1730748507.3248594</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1730748507.397665</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730748507.3248594.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730748507.397665.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>0.6064000000000001</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>0.6059</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.000500000000000056</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1730748507.413595</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1730748507.4578123</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730748507.413595.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730748507.4578123.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>0.6059</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>0.6064000000000001</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.000500000000000056</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1730748507.473742</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1730748507.5176525</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730748507.473742.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730748507.5176525.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>0.6064000000000001</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>0.6059</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.000500000000000056</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1730748507.5335813</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1730748507.576465</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730748507.5335813.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730748507.576465.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>0.6059</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>0.6064000000000001</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.000500000000000056</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1730748507.5923944</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1730748507.7584713</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730748507.5923944.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730748507.7584713.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>0.6064000000000001</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>0.6079</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>-0.001499999999999946</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1730748507.8289664</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1730748508.2107801</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730748507.8289664.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730748508.2107801.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>0.6073000000000001</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>0.6062000000000001</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>0.00109999999999999</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1730748508.2267368</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1730748510.2591774</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730748508.2267368.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730748510.2591774.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>0.6062000000000001</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>0.6049</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>-0.001300000000000079</v>
+      </c>
+      <c r="N96" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1730748515.4153094</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1730748515.6155474</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730748515.4153094.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730748515.6155474.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>0.605</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>0.6038</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>0.001199999999999979</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1730748515.6315036</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1730748519.3082256</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730748515.6315036.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730748519.3082256.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>0.6038</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>0.6044</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>0.0006000000000000449</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1730748519.3251524</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1730748519.4945524</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730748519.3251524.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730748519.4945524.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>0.6044</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>0.6037</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>0.0007000000000000339</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1730748519.5114806</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1730748519.5533953</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730748519.5114806.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730748519.5533953.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>0.6037</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>0.6041000000000001</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>0.000400000000000067</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1730748519.570322</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1730748521.302602</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730748519.570322.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730748521.302602.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>0.6041000000000001</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>0.6074000000000001</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>-0.00329999999999997</v>
+      </c>
+      <c r="N101" t="n">
+        <v>-0.5499999999999999</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1730748522.7706363</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1730748524.0990264</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730748522.7706363.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730748524.0990264.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>0.6045</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>0.6034</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>-0.00109999999999999</v>
+      </c>
+      <c r="N102" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1730748524.3928924</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1730748525.812995</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730748524.3928924.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730748525.812995.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>0.6023000000000001</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>0.6009</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>-0.001400000000000068</v>
+      </c>
+      <c r="N103" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1730748528.7609758</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1730748529.4473057</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/MXI1730748528.7609758.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/MXI1730748529.4473057.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>3035.5</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>3041.4</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>-5.900000000000091</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1730748532.038842</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1730748532.7357244</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/MXI1730748532.038842.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/MXI1730748532.7357244.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>3029.45</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>3025.5</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>3.949999999999818</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1730748532.7526505</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1730748533.2288768</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/MXI1730748532.7526505.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/MXI1730748533.2288768.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>3025.5</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>3025.55</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>0.0500000000001819</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1730748533.5693853</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>1730748534.2114816</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>./test_images/MXI1730748533.5693853.png</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>./test_images/MXI1730748534.2114816.png</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>3030.75</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>3032.35</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>-1.599999999999909</v>
+      </c>
+      <c r="N107" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1730748535.3415058</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>1730748535.412679</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>./test_images/MXI1730748535.3415058.png</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>./test_images/MXI1730748535.412679.png</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>3025.15</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>3023.55</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>-1.599999999999909</v>
+      </c>
+      <c r="N108" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>1730748537.857376</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>1730748538.1309433</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>./test_images/MXI1730748537.857376.png</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>./test_images/MXI1730748538.1309433.png</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
         <v>3018.55</v>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>3019.9</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>-1.349999999999909</v>
+      </c>
+      <c r="N109" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>1730748538.2024577</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>1730748538.5626264</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>./test_images/MXI1730748538.2024577.png</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>./test_images/MXI1730748538.5626264.png</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
         <v>3019.05</v>
       </c>
-      <c r="J110" t="n">
+      <c r="L110" t="n">
         <v>3020.95</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>-1.899999999999636</v>
+      </c>
+      <c r="N110" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>1730748539.023118</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>1730748539.4236465</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>./test_images/MXI1730748539.023118.png</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>./test_images/MXI1730748539.4236465.png</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
         <v>3017.95</v>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>3024.25</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>6.300000000000182</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>1730748541.0928714</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>1730748541.3438034</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>./test_images/MXI1730748541.0928714.png</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>./test_images/MXI1730748541.3438034.png</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
         <v>3022.2</v>
       </c>
-      <c r="J112" t="n">
+      <c r="L112" t="n">
         <v>3027.75</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>5.550000000000182</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>1730748541.3607297</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>1730748541.8302934</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>./test_images/MXI1730748541.3607297.png</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>./test_images/MXI1730748541.8302934.png</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
         <v>3027.75</v>
       </c>
-      <c r="J113" t="n">
+      <c r="L113" t="n">
         <v>3021.3</v>
       </c>
-      <c r="K113" t="n">
+      <c r="M113" t="n">
         <v>6.449999999999818</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>1730748544.8592114</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>1730748545.1065679</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>./test_images/MXI1730748544.8592114.png</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>./test_images/MXI1730748545.1065679.png</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
         <v>3005.75</v>
       </c>
-      <c r="J114" t="n">
+      <c r="L114" t="n">
         <v>3007.6</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
         <v>-1.849999999999909</v>
+      </c>
+      <c r="N114" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>1730748545.5598185</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>1730748546.1679394</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>./test_images/MXI1730748545.5598185.png</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>./test_images/MXI1730748546.1679394.png</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
         <v>3002.6</v>
       </c>
-      <c r="J115" t="n">
+      <c r="L115" t="n">
         <v>3000.25</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>-2.349999999999909</v>
+      </c>
+      <c r="N115" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>1730748546.8691776</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>1730748546.9130292</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>./test_images/MXI1730748546.8691776.png</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>./test_images/MXI1730748546.9130292.png</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
         <v>3003.35</v>
       </c>
-      <c r="J116" t="n">
+      <c r="L116" t="n">
         <v>3003.2</v>
       </c>
-      <c r="K116" t="n">
+      <c r="M116" t="n">
         <v>0.1500000000000909</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>1730748547.2893982</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>1730748547.5340285</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>./test_images/MXI1730748547.2893982.png</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>./test_images/MXI1730748547.5340285.png</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I117" t="n">
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
         <v>3000.25</v>
       </c>
-      <c r="J117" t="n">
+      <c r="L117" t="n">
         <v>2996.05</v>
       </c>
-      <c r="K117" t="n">
+      <c r="M117" t="n">
         <v>-4.199999999999818</v>
+      </c>
+      <c r="N117" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>1730748548.6909816</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>1730748548.7765493</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>./test_images/MXI1730748548.6909816.png</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>./test_images/MXI1730748548.7765493.png</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
         <v>2996.35</v>
       </c>
-      <c r="J118" t="n">
+      <c r="L118" t="n">
         <v>2996.3</v>
       </c>
-      <c r="K118" t="n">
+      <c r="M118" t="n">
         <v>0.04999999999972715</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>1730748552.08855</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>1730748552.6140895</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730748552.08855.png</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730748552.6140895.png</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
         <v>34.775</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>34.67</v>
       </c>
-      <c r="K119" t="n">
+      <c r="M119" t="n">
         <v>-0.1049999999999969</v>
+      </c>
+      <c r="N119" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="n">
+        <v>118</v>
+      </c>
+      <c r="D120" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>1730748552.7686849</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>1730748555.1788595</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730748552.7686849.png</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730748555.1788595.png</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
         <v>34.73</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>34.83</v>
       </c>
-      <c r="K120" t="n">
+      <c r="M120" t="n">
         <v>0.1000000000000014</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="n">
+        <v>119</v>
+      </c>
+      <c r="D121" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>1730748558.776114</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>1730748560.2769861</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730748558.776114.png</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730748560.2769861.png</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I121" t="n">
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
         <v>34.805</v>
       </c>
-      <c r="J121" t="n">
+      <c r="L121" t="n">
         <v>34.745</v>
       </c>
-      <c r="K121" t="n">
+      <c r="M121" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N121" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="n">
+        <v>120</v>
+      </c>
+      <c r="D122" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>1730748560.3597646</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>1730748560.4036188</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730748560.3597646.png</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730748560.4036188.png</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
         <v>34.75</v>
       </c>
-      <c r="J122" t="n">
+      <c r="L122" t="n">
         <v>34.7</v>
       </c>
-      <c r="K122" t="n">
+      <c r="M122" t="n">
         <v>-0.04999999999999716</v>
+      </c>
+      <c r="N122" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" t="n">
+        <v>121</v>
+      </c>
+      <c r="C123" t="n">
+        <v>121</v>
+      </c>
+      <c r="D123" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>1730748560.66079</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>1730748561.7412803</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730748560.66079.png</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730748561.7412803.png</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
         <v>34.755</v>
       </c>
-      <c r="J123" t="n">
+      <c r="L123" t="n">
         <v>34.73</v>
       </c>
-      <c r="K123" t="n">
+      <c r="M123" t="n">
         <v>-0.02500000000000568</v>
+      </c>
+      <c r="N123" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" t="n">
+        <v>122</v>
+      </c>
+      <c r="C124" t="n">
+        <v>122</v>
+      </c>
+      <c r="D124" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>1730748570.5336347</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1730748570.5336347.png</t>
         </is>
       </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1730748570.5336347.png</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>ST13</t>
-        </is>
-      </c>
-      <c r="I124" t="n">
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>ST13</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
         <v>34.38</v>
       </c>
-      <c r="J124" t="n">
-        <v>34.38</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0</v>
+      <c r="L124" t="n">
+        <v>34.425</v>
+      </c>
+      <c r="M124" t="n">
+        <v>-0.0449999999999946</v>
+      </c>
+      <c r="N124" t="n">
+        <v>-0.13</v>
       </c>
     </row>
   </sheetData>
@@ -6502,7 +7622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6526,6 +7646,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -6539,6 +7674,15 @@
       <c r="C2" t="n">
         <v>15</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.1166666666667273</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -6552,6 +7696,15 @@
       <c r="C3" t="n">
         <v>15</v>
       </c>
+      <c r="D3" t="n">
+        <v>-0.0001399999999999772</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.3499999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -6565,6 +7718,15 @@
       <c r="C4" t="n">
         <v>12</v>
       </c>
+      <c r="D4" t="n">
+        <v>-0.01583333333333314</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -6578,6 +7740,15 @@
       <c r="C5" t="n">
         <v>11</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.02045454545454365</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -6591,6 +7762,15 @@
       <c r="C6" t="n">
         <v>8</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.1124999999999687</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -6604,6 +7784,15 @@
       <c r="C7" t="n">
         <v>7</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.008571428571432957</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -6617,6 +7806,15 @@
       <c r="C8" t="n">
         <v>7</v>
       </c>
+      <c r="D8" t="n">
+        <v>5.714285714285714</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -6630,6 +7828,15 @@
       <c r="C9" t="n">
         <v>7</v>
       </c>
+      <c r="D9" t="n">
+        <v>-0.1857142857142873</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -6643,6 +7850,15 @@
       <c r="C10" t="n">
         <v>6</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.5999999999999849</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -6651,11 +7867,20 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1400000000000006</v>
+        <v>-0.1849999999999952</v>
       </c>
       <c r="C11" t="n">
         <v>6</v>
       </c>
+      <c r="D11" t="n">
+        <v>-0.03083333333333253</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -6664,11 +7889,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3200000000000216</v>
+        <v>0.3800000000000239</v>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.07600000000000477</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -6682,6 +7916,15 @@
       <c r="C13" t="n">
         <v>4</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.04500000000000881</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1200000000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -6695,6 +7938,15 @@
       <c r="C14" t="n">
         <v>4</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.1250000000000018</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -6708,6 +7960,15 @@
       <c r="C15" t="n">
         <v>4</v>
       </c>
+      <c r="D15" t="n">
+        <v>-0.5000000000000568</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -6721,6 +7982,15 @@
       <c r="C16" t="n">
         <v>3</v>
       </c>
+      <c r="D16" t="n">
+        <v>-0.04333333333333182</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -6734,6 +8004,15 @@
       <c r="C17" t="n">
         <v>3</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.00966666666666427</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -6747,6 +8026,15 @@
       <c r="C18" t="n">
         <v>2</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.5299999999999727</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -6760,6 +8048,15 @@
       <c r="C19" t="n">
         <v>2</v>
       </c>
+      <c r="D19" t="n">
+        <v>-0.0005500000000000019</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.55</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -6773,6 +8070,15 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>0.5500000000000682</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -6786,6 +8092,11 @@
       <c r="C21" t="n">
         <v>0</v>
       </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
